--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA672AB-E36C-4209-B592-27F026372679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4.2.常駐バッチ" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.2.常駐バッチ'!$A$1:$AI$130</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$132</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$132</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$132</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.2.常駐バッチ'!$A$1:$AI$136</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$138</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$138</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$138</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$138</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -1059,10 +1071,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロセスを起動しておき、一定間隔でバッチ処理を実行する。 例えば、オンライン処理で作成された要求データを定期的に一括処理するような場合に使用する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>本システムは、メール送信処理に常駐バッチを利用する。</t>
     <rPh sb="0" eb="1">
       <t>ホン</t>
@@ -1093,13 +1101,82 @@
   </si>
   <si>
     <t>本システムでの選択基準を以下に示す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※Nablarchでは、マルチスレッドで動かしたときに常駐バッチよりもテーブルをキューとして使ったメッセージング（以下、キュー方式）の方が</t>
+    <rPh sb="20" eb="21">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　パフォーマンス的に優れているため、キュー方式の利用が推奨されている。</t>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スグ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　しかし、メール送信においてはマルチスレッドが必要になるような大量送信は想定されていないため、</t>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　常駐バッチを使用しても問題ないとされている。</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロセスを起動しておき、一定間隔でバッチ処理を実行する。 例えば、オンライン処理で作成された要求データを定期的に</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一括処理するような場合に使用する。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1478,15 +1555,18 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 3 2 3" xfId="3"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1498,18 +1578,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvPr id="5" name="角丸四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1553,18 +1639,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvPr id="7" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1603,10 +1695,6 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>常駐バッチ</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t/>
-          </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
           </a:br>
@@ -1623,18 +1711,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1678,18 +1772,24 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>273325</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="環状矢印 5"/>
+        <xdr:cNvPr id="6" name="環状矢印 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1740,18 +1840,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="0"/>
           <a:endCxn id="8" idx="2"/>
@@ -1790,18 +1896,24 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>273326</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="フローチャート : 磁気ディスク 11"/>
+        <xdr:cNvPr id="12" name="フローチャート : 磁気ディスク 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1845,18 +1957,24 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1900,18 +2018,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>273326</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="1"/>
           <a:endCxn id="12" idx="4"/>
@@ -1950,18 +2074,24 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="12" idx="2"/>
           <a:endCxn id="7" idx="3"/>
@@ -2000,18 +2130,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>273326</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2058,18 +2194,24 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>273324</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2116,18 +2258,24 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2175,18 +2323,24 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>140804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>140803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2234,7 +2388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2276,7 +2430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2309,9 +2463,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2344,6 +2515,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2519,11 +2707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI563"/>
+  <dimension ref="A1:AI569"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -2699,1007 +2887,1152 @@
         <v>4.2.1.1.</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E11" s="15"/>
       <c r="F11" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="15"/>
+      <c r="F12" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F12" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="15" t="str">
+    <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="15" t="str">
         <f>$D$9&amp;"2."</f>
         <v>4.2.1.2.</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="28"/>
-      <c r="F15" s="4" t="s">
+    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="28"/>
+      <c r="F16" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="18"/>
+    </row>
+    <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="24"/>
+    </row>
+    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="27"/>
+    </row>
+    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+    </row>
+    <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="23" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="18"/>
-    </row>
-    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F17" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="23"/>
-      <c r="AG17" s="23"/>
-      <c r="AH17" s="24"/>
-    </row>
-    <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="27"/>
-    </row>
-    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D20" s="15" t="str">
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+    </row>
+    <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+    </row>
+    <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="23"/>
+    </row>
+    <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="23"/>
+    </row>
+    <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>4.2.2.</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="15"/>
-      <c r="E21" s="15" t="str">
-        <f>$D$20&amp;"1."</f>
+    <row r="27" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15" t="str">
+        <f>$D$26&amp;"1."</f>
         <v>4.2.2.1.</v>
       </c>
-      <c r="F21" s="4" t="str">
-        <f>$E$20&amp;"機能概要"</f>
+      <c r="F27" s="4" t="str">
+        <f>$E$26&amp;"機能概要"</f>
         <v>処理制御機能概要</v>
       </c>
     </row>
-    <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="30" t="s">
+    <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28" s="30" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F23" s="4" t="s">
+    <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="15" t="str">
-        <f>$D$20&amp;"2."</f>
+    <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="15" t="str">
+        <f>$D$26&amp;"2."</f>
         <v>4.2.2.2.</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E26" s="15"/>
-      <c r="F26" s="4" t="s">
+    <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="15"/>
+      <c r="F32" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E27" s="15"/>
-      <c r="F27" s="4" t="s">
+    <row r="33" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="15"/>
+      <c r="F33" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="15"/>
-      <c r="F29" s="4" t="s">
+    <row r="34" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="15"/>
+      <c r="F35" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E30" s="15"/>
-      <c r="F30" s="4" t="s">
+    <row r="36" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="15"/>
+      <c r="F36" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="15" t="str">
-        <f>$D$20&amp;"3."</f>
+    <row r="37" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="15" t="str">
+        <f>$D$26&amp;"3."</f>
         <v>4.2.2.3.</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="4" t="s">
+    <row r="39" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="4" t="s">
+    <row r="40" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="4" t="s">
+    <row r="41" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="4" t="s">
+    <row r="42" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="4" t="s">
+    <row r="43" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F39" s="4" t="s">
+    <row r="45" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E41" s="15" t="str">
-        <f>$D$20&amp;"4."</f>
+    <row r="46" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="15" t="str">
+        <f>$D$26&amp;"4."</f>
         <v>4.2.2.4.</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E42" s="15"/>
-      <c r="F42" s="4" t="s">
+    <row r="48" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="15"/>
+      <c r="F48" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E43" s="15"/>
-      <c r="F43" s="4" t="s">
+    <row r="49" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="15"/>
+      <c r="F49" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D46" s="15" t="str">
+    <row r="50" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D52" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>4.2.4.</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="15"/>
-      <c r="E47" s="4" t="s">
+    <row r="53" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D53" s="15"/>
+      <c r="E53" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D48" s="15"/>
-      <c r="E48" s="4" t="s">
+    <row r="54" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D54" s="15"/>
+      <c r="E54" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="15"/>
-      <c r="E49" s="4" t="s">
+    <row r="55" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D55" s="15"/>
+      <c r="E55" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="15" t="str">
+    <row r="56" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D57" s="15"/>
+    </row>
+    <row r="58" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D58" s="15" t="str">
         <f>$C$7&amp;"5."</f>
         <v>4.2.5.</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53" s="15"/>
-      <c r="E53" s="15" t="str">
-        <f>$D$52&amp;"1."</f>
-        <v>4.2.5.1.</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D54" s="15"/>
-      <c r="F54" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="15"/>
-      <c r="F55" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D56" s="15"/>
-      <c r="F56" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D57" s="15"/>
-      <c r="F57" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D58" s="15"/>
-      <c r="F58" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="59" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="15"/>
+      <c r="E59" s="15" t="str">
+        <f>$D$58&amp;"1."</f>
+        <v>4.2.5.1.</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="60" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="15"/>
       <c r="F60" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="15"/>
       <c r="F61" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="15"/>
       <c r="F62" s="4" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="15"/>
       <c r="F63" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D64" s="15"/>
+      <c r="F64" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="65" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="15"/>
     </row>
     <row r="66" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D66" s="15" t="str">
+      <c r="D66" s="15"/>
+      <c r="F66" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D67" s="15"/>
+      <c r="F67" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D68" s="15"/>
+      <c r="F68" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D69" s="15"/>
+      <c r="F69" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D70" s="15"/>
+    </row>
+    <row r="71" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D71" s="15"/>
+    </row>
+    <row r="72" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D72" s="15" t="str">
         <f>$C$7&amp;"6."</f>
         <v>4.2.6.</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E72" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D67" s="15"/>
-      <c r="E67" s="15" t="str">
-        <f>$D$66&amp;"1."</f>
+    <row r="73" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D73" s="15"/>
+      <c r="E73" s="15" t="str">
+        <f>$D$72&amp;"1."</f>
         <v>4.2.6.1.</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F73" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E68" s="15"/>
-      <c r="F68" s="4" t="s">
+    <row r="74" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E74" s="15"/>
+      <c r="F74" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E70" s="15" t="str">
-        <f>$D$66&amp;"2."</f>
+    <row r="75" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E76" s="15" t="str">
+        <f>$D$72&amp;"2."</f>
         <v>4.2.6.2.</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F76" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F71" s="4" t="str">
+    <row r="77" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="4" t="str">
         <f>$E$9&amp;"を行う機能には、以下の方法がある。"</f>
         <v>処理方式概要を行う機能には、以下の方法がある。</v>
       </c>
     </row>
-    <row r="72" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="28"/>
-      <c r="F73" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
-      <c r="R73" s="17"/>
-      <c r="S73" s="17"/>
-      <c r="T73" s="17"/>
-      <c r="U73" s="17"/>
-      <c r="V73" s="17"/>
-      <c r="W73" s="17"/>
-      <c r="X73" s="17"/>
-      <c r="Y73" s="17"/>
-      <c r="Z73" s="17"/>
-      <c r="AA73" s="17"/>
-      <c r="AB73" s="17"/>
-      <c r="AC73" s="17"/>
-      <c r="AD73" s="17"/>
-      <c r="AE73" s="17"/>
-      <c r="AF73" s="17"/>
-      <c r="AG73" s="17"/>
-      <c r="AH73" s="18"/>
-    </row>
-    <row r="74" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="28"/>
-      <c r="F74" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="O74" s="20"/>
-      <c r="P74" s="20"/>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="20"/>
-      <c r="T74" s="20"/>
-      <c r="U74" s="20"/>
-      <c r="V74" s="20"/>
-      <c r="W74" s="20"/>
-      <c r="X74" s="20"/>
-      <c r="Y74" s="20"/>
-      <c r="Z74" s="20"/>
-      <c r="AA74" s="20"/>
-      <c r="AB74" s="20"/>
-      <c r="AC74" s="20"/>
-      <c r="AD74" s="20"/>
-      <c r="AE74" s="20"/>
-      <c r="AF74" s="20"/>
-      <c r="AG74" s="20"/>
-      <c r="AH74" s="21"/>
-    </row>
-    <row r="75" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="28"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-      <c r="N75" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="O75" s="23"/>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
-      <c r="R75" s="23"/>
-      <c r="S75" s="23"/>
-      <c r="T75" s="23"/>
-      <c r="U75" s="23"/>
-      <c r="V75" s="23"/>
-      <c r="W75" s="23"/>
-      <c r="X75" s="23"/>
-      <c r="Y75" s="23"/>
-      <c r="Z75" s="23"/>
-      <c r="AA75" s="23"/>
-      <c r="AB75" s="23"/>
-      <c r="AC75" s="23"/>
-      <c r="AD75" s="23"/>
-      <c r="AE75" s="23"/>
-      <c r="AF75" s="23"/>
-      <c r="AG75" s="23"/>
-      <c r="AH75" s="24"/>
-    </row>
-    <row r="76" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="28"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="25"/>
-      <c r="O76" s="26"/>
-      <c r="P76" s="26"/>
-      <c r="Q76" s="26"/>
-      <c r="R76" s="26"/>
-      <c r="S76" s="26"/>
-      <c r="T76" s="26"/>
-      <c r="U76" s="26"/>
-      <c r="V76" s="26"/>
-      <c r="W76" s="26"/>
-      <c r="X76" s="26"/>
-      <c r="Y76" s="26"/>
-      <c r="Z76" s="26"/>
-      <c r="AA76" s="26"/>
-      <c r="AB76" s="26"/>
-      <c r="AC76" s="26"/>
-      <c r="AD76" s="26"/>
-      <c r="AE76" s="26"/>
-      <c r="AF76" s="26"/>
-      <c r="AG76" s="26"/>
-      <c r="AH76" s="27"/>
-    </row>
-    <row r="77" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="28"/>
-      <c r="F77" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="O77" s="20"/>
-      <c r="P77" s="20"/>
-      <c r="Q77" s="20"/>
-      <c r="R77" s="20"/>
-      <c r="S77" s="20"/>
-      <c r="T77" s="20"/>
-      <c r="U77" s="20"/>
-      <c r="V77" s="20"/>
-      <c r="W77" s="20"/>
-      <c r="X77" s="20"/>
-      <c r="Y77" s="20"/>
-      <c r="Z77" s="20"/>
-      <c r="AA77" s="20"/>
-      <c r="AB77" s="20"/>
-      <c r="AC77" s="20"/>
-      <c r="AD77" s="20"/>
-      <c r="AE77" s="20"/>
-      <c r="AF77" s="20"/>
-      <c r="AG77" s="20"/>
-      <c r="AH77" s="21"/>
-    </row>
-    <row r="78" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="28"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
-      <c r="M78" s="23"/>
-      <c r="N78" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="O78" s="23"/>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="23"/>
-      <c r="R78" s="23"/>
-      <c r="S78" s="23"/>
-      <c r="T78" s="23"/>
-      <c r="U78" s="23"/>
-      <c r="V78" s="23"/>
-      <c r="W78" s="23"/>
-      <c r="X78" s="23"/>
-      <c r="Y78" s="23"/>
-      <c r="Z78" s="23"/>
-      <c r="AA78" s="23"/>
-      <c r="AB78" s="23"/>
-      <c r="AC78" s="23"/>
-      <c r="AD78" s="23"/>
-      <c r="AE78" s="23"/>
-      <c r="AF78" s="23"/>
-      <c r="AG78" s="23"/>
-      <c r="AH78" s="24"/>
-    </row>
+    <row r="78" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="79" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="28"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="26"/>
-      <c r="Q79" s="26"/>
-      <c r="R79" s="26"/>
-      <c r="S79" s="26"/>
-      <c r="T79" s="26"/>
-      <c r="U79" s="26"/>
-      <c r="V79" s="26"/>
-      <c r="W79" s="26"/>
-      <c r="X79" s="26"/>
-      <c r="Y79" s="26"/>
-      <c r="Z79" s="26"/>
-      <c r="AA79" s="26"/>
-      <c r="AB79" s="26"/>
-      <c r="AC79" s="26"/>
-      <c r="AD79" s="26"/>
-      <c r="AE79" s="26"/>
-      <c r="AF79" s="26"/>
-      <c r="AG79" s="26"/>
-      <c r="AH79" s="27"/>
+      <c r="F79" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="17"/>
+      <c r="X79" s="17"/>
+      <c r="Y79" s="17"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="17"/>
+      <c r="AB79" s="17"/>
+      <c r="AC79" s="17"/>
+      <c r="AD79" s="17"/>
+      <c r="AE79" s="17"/>
+      <c r="AF79" s="17"/>
+      <c r="AG79" s="17"/>
+      <c r="AH79" s="18"/>
     </row>
     <row r="80" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="23"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="23"/>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="23"/>
-      <c r="R80" s="23"/>
-      <c r="S80" s="23"/>
-      <c r="T80" s="23"/>
-      <c r="U80" s="23"/>
-      <c r="V80" s="23"/>
-      <c r="W80" s="23"/>
-      <c r="X80" s="23"/>
-      <c r="Y80" s="23"/>
-      <c r="Z80" s="23"/>
-      <c r="AA80" s="23"/>
-      <c r="AB80" s="23"/>
-      <c r="AC80" s="23"/>
-      <c r="AD80" s="23"/>
-      <c r="AE80" s="23"/>
-      <c r="AF80" s="23"/>
-      <c r="AG80" s="23"/>
-      <c r="AH80" s="23"/>
+      <c r="F80" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="20"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="20"/>
+      <c r="U80" s="20"/>
+      <c r="V80" s="20"/>
+      <c r="W80" s="20"/>
+      <c r="X80" s="20"/>
+      <c r="Y80" s="20"/>
+      <c r="Z80" s="20"/>
+      <c r="AA80" s="20"/>
+      <c r="AB80" s="20"/>
+      <c r="AC80" s="20"/>
+      <c r="AD80" s="20"/>
+      <c r="AE80" s="20"/>
+      <c r="AF80" s="20"/>
+      <c r="AG80" s="20"/>
+      <c r="AH80" s="21"/>
     </row>
     <row r="81" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28"/>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="22"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O81" s="23"/>
+      <c r="P81" s="23"/>
+      <c r="Q81" s="23"/>
+      <c r="R81" s="23"/>
+      <c r="S81" s="23"/>
+      <c r="T81" s="23"/>
+      <c r="U81" s="23"/>
+      <c r="V81" s="23"/>
+      <c r="W81" s="23"/>
+      <c r="X81" s="23"/>
+      <c r="Y81" s="23"/>
+      <c r="Z81" s="23"/>
+      <c r="AA81" s="23"/>
+      <c r="AB81" s="23"/>
+      <c r="AC81" s="23"/>
+      <c r="AD81" s="23"/>
+      <c r="AE81" s="23"/>
+      <c r="AF81" s="23"/>
+      <c r="AG81" s="23"/>
+      <c r="AH81" s="24"/>
+    </row>
+    <row r="82" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="28"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="26"/>
+      <c r="S82" s="26"/>
+      <c r="T82" s="26"/>
+      <c r="U82" s="26"/>
+      <c r="V82" s="26"/>
+      <c r="W82" s="26"/>
+      <c r="X82" s="26"/>
+      <c r="Y82" s="26"/>
+      <c r="Z82" s="26"/>
+      <c r="AA82" s="26"/>
+      <c r="AB82" s="26"/>
+      <c r="AC82" s="26"/>
+      <c r="AD82" s="26"/>
+      <c r="AE82" s="26"/>
+      <c r="AF82" s="26"/>
+      <c r="AG82" s="26"/>
+      <c r="AH82" s="27"/>
+    </row>
+    <row r="83" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="28"/>
+      <c r="F83" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="20"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="20"/>
+      <c r="X83" s="20"/>
+      <c r="Y83" s="20"/>
+      <c r="Z83" s="20"/>
+      <c r="AA83" s="20"/>
+      <c r="AB83" s="20"/>
+      <c r="AC83" s="20"/>
+      <c r="AD83" s="20"/>
+      <c r="AE83" s="20"/>
+      <c r="AF83" s="20"/>
+      <c r="AG83" s="20"/>
+      <c r="AH83" s="21"/>
+    </row>
+    <row r="84" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="28"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="O84" s="23"/>
+      <c r="P84" s="23"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="23"/>
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="23"/>
+      <c r="Z84" s="23"/>
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="23"/>
+      <c r="AD84" s="23"/>
+      <c r="AE84" s="23"/>
+      <c r="AF84" s="23"/>
+      <c r="AG84" s="23"/>
+      <c r="AH84" s="24"/>
+    </row>
+    <row r="85" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="28"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="26"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="26"/>
+      <c r="S85" s="26"/>
+      <c r="T85" s="26"/>
+      <c r="U85" s="26"/>
+      <c r="V85" s="26"/>
+      <c r="W85" s="26"/>
+      <c r="X85" s="26"/>
+      <c r="Y85" s="26"/>
+      <c r="Z85" s="26"/>
+      <c r="AA85" s="26"/>
+      <c r="AB85" s="26"/>
+      <c r="AC85" s="26"/>
+      <c r="AD85" s="26"/>
+      <c r="AE85" s="26"/>
+      <c r="AF85" s="26"/>
+      <c r="AG85" s="26"/>
+      <c r="AH85" s="27"/>
+    </row>
+    <row r="86" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="28"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="23"/>
+      <c r="Q86" s="23"/>
+      <c r="R86" s="23"/>
+      <c r="S86" s="23"/>
+      <c r="T86" s="23"/>
+      <c r="U86" s="23"/>
+      <c r="V86" s="23"/>
+      <c r="W86" s="23"/>
+      <c r="X86" s="23"/>
+      <c r="Y86" s="23"/>
+      <c r="Z86" s="23"/>
+      <c r="AA86" s="23"/>
+      <c r="AB86" s="23"/>
+      <c r="AC86" s="23"/>
+      <c r="AD86" s="23"/>
+      <c r="AE86" s="23"/>
+      <c r="AF86" s="23"/>
+      <c r="AG86" s="23"/>
+      <c r="AH86" s="23"/>
+    </row>
+    <row r="87" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="28"/>
+      <c r="F87" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F82" s="16" t="s">
+    <row r="88" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F88" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="17" t="s">
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="16" t="s">
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="17"/>
-      <c r="T82" s="17"/>
-      <c r="U82" s="17"/>
-      <c r="V82" s="17"/>
-      <c r="W82" s="17"/>
-      <c r="X82" s="17"/>
-      <c r="Y82" s="17"/>
-      <c r="Z82" s="17"/>
-      <c r="AA82" s="17"/>
-      <c r="AB82" s="17"/>
-      <c r="AC82" s="17"/>
-      <c r="AD82" s="17"/>
-      <c r="AE82" s="17"/>
-      <c r="AF82" s="17"/>
-      <c r="AG82" s="17"/>
-      <c r="AH82" s="18"/>
-    </row>
-    <row r="83" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F83" s="22" t="s">
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="17"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="17"/>
+      <c r="X88" s="17"/>
+      <c r="Y88" s="17"/>
+      <c r="Z88" s="17"/>
+      <c r="AA88" s="17"/>
+      <c r="AB88" s="17"/>
+      <c r="AC88" s="17"/>
+      <c r="AD88" s="17"/>
+      <c r="AE88" s="17"/>
+      <c r="AF88" s="17"/>
+      <c r="AG88" s="17"/>
+      <c r="AH88" s="18"/>
+    </row>
+    <row r="89" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F89" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="23" t="s">
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K83" s="23"/>
-      <c r="L83" s="23"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="22" t="s">
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="O83" s="23"/>
-      <c r="P83" s="23"/>
-      <c r="Q83" s="23"/>
-      <c r="R83" s="23"/>
-      <c r="S83" s="23"/>
-      <c r="T83" s="23"/>
-      <c r="U83" s="23"/>
-      <c r="V83" s="23"/>
-      <c r="W83" s="23"/>
-      <c r="X83" s="23"/>
-      <c r="Y83" s="23"/>
-      <c r="Z83" s="23"/>
-      <c r="AA83" s="23"/>
-      <c r="AB83" s="23"/>
-      <c r="AC83" s="23"/>
-      <c r="AD83" s="23"/>
-      <c r="AE83" s="23"/>
-      <c r="AF83" s="23"/>
-      <c r="AG83" s="23"/>
-      <c r="AH83" s="24"/>
-    </row>
-    <row r="84" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F84" s="25"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="26"/>
-      <c r="S84" s="26"/>
-      <c r="T84" s="26"/>
-      <c r="U84" s="26"/>
-      <c r="V84" s="26"/>
-      <c r="W84" s="26"/>
-      <c r="X84" s="26"/>
-      <c r="Y84" s="26"/>
-      <c r="Z84" s="26"/>
-      <c r="AA84" s="26"/>
-      <c r="AB84" s="26"/>
-      <c r="AC84" s="26"/>
-      <c r="AD84" s="26"/>
-      <c r="AE84" s="26"/>
-      <c r="AF84" s="26"/>
-      <c r="AG84" s="26"/>
-      <c r="AH84" s="27"/>
-    </row>
-    <row r="85" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F85" s="22" t="s">
+      <c r="O89" s="23"/>
+      <c r="P89" s="23"/>
+      <c r="Q89" s="23"/>
+      <c r="R89" s="23"/>
+      <c r="S89" s="23"/>
+      <c r="T89" s="23"/>
+      <c r="U89" s="23"/>
+      <c r="V89" s="23"/>
+      <c r="W89" s="23"/>
+      <c r="X89" s="23"/>
+      <c r="Y89" s="23"/>
+      <c r="Z89" s="23"/>
+      <c r="AA89" s="23"/>
+      <c r="AB89" s="23"/>
+      <c r="AC89" s="23"/>
+      <c r="AD89" s="23"/>
+      <c r="AE89" s="23"/>
+      <c r="AF89" s="23"/>
+      <c r="AG89" s="23"/>
+      <c r="AH89" s="24"/>
+    </row>
+    <row r="90" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F90" s="25"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="26"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="26"/>
+      <c r="P90" s="26"/>
+      <c r="Q90" s="26"/>
+      <c r="R90" s="26"/>
+      <c r="S90" s="26"/>
+      <c r="T90" s="26"/>
+      <c r="U90" s="26"/>
+      <c r="V90" s="26"/>
+      <c r="W90" s="26"/>
+      <c r="X90" s="26"/>
+      <c r="Y90" s="26"/>
+      <c r="Z90" s="26"/>
+      <c r="AA90" s="26"/>
+      <c r="AB90" s="26"/>
+      <c r="AC90" s="26"/>
+      <c r="AD90" s="26"/>
+      <c r="AE90" s="26"/>
+      <c r="AF90" s="26"/>
+      <c r="AG90" s="26"/>
+      <c r="AH90" s="27"/>
+    </row>
+    <row r="91" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F91" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="23" t="s">
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="22" t="s">
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="O85" s="23"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="23"/>
-      <c r="R85" s="23"/>
-      <c r="S85" s="23"/>
-      <c r="T85" s="23"/>
-      <c r="U85" s="23"/>
-      <c r="V85" s="23"/>
-      <c r="W85" s="23"/>
-      <c r="X85" s="23"/>
-      <c r="Y85" s="23"/>
-      <c r="Z85" s="23"/>
-      <c r="AA85" s="23"/>
-      <c r="AB85" s="23"/>
-      <c r="AC85" s="23"/>
-      <c r="AD85" s="23"/>
-      <c r="AE85" s="23"/>
-      <c r="AF85" s="23"/>
-      <c r="AG85" s="23"/>
-      <c r="AH85" s="24"/>
-    </row>
-    <row r="86" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F86" s="25"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="26"/>
-      <c r="N86" s="25" t="s">
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="23"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="23"/>
+      <c r="U91" s="23"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="23"/>
+      <c r="X91" s="23"/>
+      <c r="Y91" s="23"/>
+      <c r="Z91" s="23"/>
+      <c r="AA91" s="23"/>
+      <c r="AB91" s="23"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="23"/>
+      <c r="AE91" s="23"/>
+      <c r="AF91" s="23"/>
+      <c r="AG91" s="23"/>
+      <c r="AH91" s="24"/>
+    </row>
+    <row r="92" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F92" s="25"/>
+      <c r="G92" s="26"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="26"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="O86" s="26"/>
-      <c r="P86" s="26"/>
-      <c r="Q86" s="26"/>
-      <c r="R86" s="26"/>
-      <c r="S86" s="26"/>
-      <c r="T86" s="26"/>
-      <c r="U86" s="26"/>
-      <c r="V86" s="26"/>
-      <c r="W86" s="26"/>
-      <c r="X86" s="26"/>
-      <c r="Y86" s="26"/>
-      <c r="Z86" s="26"/>
-      <c r="AA86" s="26"/>
-      <c r="AB86" s="26"/>
-      <c r="AC86" s="26"/>
-      <c r="AD86" s="26"/>
-      <c r="AE86" s="26"/>
-      <c r="AF86" s="26"/>
-      <c r="AG86" s="26"/>
-      <c r="AH86" s="27"/>
-    </row>
-    <row r="87" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D87" s="15"/>
-    </row>
-    <row r="88" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D88" s="15"/>
-    </row>
-    <row r="89" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D89" s="15"/>
-      <c r="E89" s="15" t="str">
-        <f>$D$66&amp;"3."</f>
-        <v>4.2.6.3.</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D90" s="15"/>
-      <c r="F90" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D91" s="15"/>
-      <c r="F91" s="29"/>
-      <c r="G91" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="92" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D92" s="15"/>
-      <c r="F92" s="29"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="26"/>
+      <c r="R92" s="26"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="26"/>
+      <c r="U92" s="26"/>
+      <c r="V92" s="26"/>
+      <c r="W92" s="26"/>
+      <c r="X92" s="26"/>
+      <c r="Y92" s="26"/>
+      <c r="Z92" s="26"/>
+      <c r="AA92" s="26"/>
+      <c r="AB92" s="26"/>
+      <c r="AC92" s="26"/>
+      <c r="AD92" s="26"/>
+      <c r="AE92" s="26"/>
+      <c r="AF92" s="26"/>
+      <c r="AG92" s="26"/>
+      <c r="AH92" s="27"/>
     </row>
     <row r="93" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D93" s="15"/>
-      <c r="F93" s="29"/>
     </row>
     <row r="94" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D94" s="15"/>
-      <c r="F94" s="29"/>
     </row>
     <row r="95" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D95" s="15"/>
-      <c r="F95" s="29"/>
+      <c r="E95" s="15" t="str">
+        <f>$D$72&amp;"3."</f>
+        <v>4.2.6.3.</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="96" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D96" s="15"/>
-      <c r="F96" s="29"/>
-    </row>
-    <row r="97" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F96" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D97" s="15"/>
       <c r="F97" s="29"/>
-    </row>
-    <row r="98" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G97" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D98" s="15"/>
       <c r="F98" s="29"/>
     </row>
-    <row r="99" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D99" s="15"/>
       <c r="F99" s="29"/>
     </row>
-    <row r="100" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D100" s="15"/>
       <c r="F100" s="29"/>
     </row>
-    <row r="101" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D101" s="15"/>
       <c r="F101" s="29"/>
     </row>
-    <row r="102" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D102" s="15"/>
       <c r="F102" s="29"/>
     </row>
-    <row r="103" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D103" s="15"/>
       <c r="F103" s="29"/>
     </row>
-    <row r="104" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D104" s="15"/>
       <c r="F104" s="29"/>
     </row>
-    <row r="105" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D105" s="15"/>
       <c r="F105" s="29"/>
     </row>
-    <row r="106" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D106" s="15"/>
       <c r="F106" s="29"/>
     </row>
-    <row r="107" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D107" s="15"/>
       <c r="F107" s="29"/>
     </row>
-    <row r="108" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D108" s="15"/>
       <c r="F108" s="29"/>
     </row>
-    <row r="109" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D109" s="15"/>
       <c r="F109" s="29"/>
     </row>
-    <row r="110" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D110" s="15"/>
       <c r="F110" s="29"/>
     </row>
-    <row r="111" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D111" s="15"/>
       <c r="F111" s="29"/>
     </row>
-    <row r="112" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D112" s="15"/>
       <c r="F112" s="29"/>
     </row>
@@ -3710,158 +4043,176 @@
     <row r="114" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D114" s="15"/>
       <c r="F114" s="29"/>
-      <c r="G114" s="4" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="115" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D115" s="15"/>
       <c r="F115" s="29"/>
-      <c r="G115" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="116" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D116" s="15"/>
       <c r="F116" s="29"/>
-      <c r="G116" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="117" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D117" s="15"/>
       <c r="F117" s="29"/>
-      <c r="G117" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="118" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D118" s="15"/>
       <c r="F118" s="29"/>
-      <c r="G118" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="119" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D119" s="15"/>
       <c r="F119" s="29"/>
-      <c r="G119" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="120" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D120" s="15"/>
       <c r="F120" s="29"/>
-      <c r="G120" s="15"/>
+      <c r="G120" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="121" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D121" s="15"/>
       <c r="F121" s="29"/>
       <c r="G121" s="15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D122" s="15"/>
       <c r="F122" s="29"/>
+      <c r="G122" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="123" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D123" s="15"/>
-      <c r="E123" s="15" t="str">
-        <f>$D$66&amp;"4."</f>
-        <v>4.2.6.4.</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>51</v>
+      <c r="F123" s="29"/>
+      <c r="G123" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="4" t="s">
-        <v>56</v>
+      <c r="F124" s="29"/>
+      <c r="G124" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="125" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>60</v>
+      <c r="F125" s="29"/>
+      <c r="G125" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="F126" s="29"/>
+      <c r="G126" s="15"/>
     </row>
     <row r="127" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>62</v>
+      <c r="F127" s="29"/>
+      <c r="G127" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="128" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
       <c r="F128" s="29"/>
-      <c r="G128" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H128" s="4" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="129" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="29"/>
-      <c r="H129" s="4" t="s">
-        <v>64</v>
+      <c r="E129" s="15" t="str">
+        <f>$D$72&amp;"4."</f>
+        <v>4.2.6.4.</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
+      <c r="F130" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="131" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D131" s="15"/>
-    </row>
-    <row r="132" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="135" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="29"/>
+      <c r="H135" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="136" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+    </row>
+    <row r="137" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D137" s="15"/>
+    </row>
     <row r="138" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="139" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="140" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4288,6 +4639,12 @@
     <row r="561" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="562" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="563" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>
@@ -4306,9 +4663,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="44" max="34" man="1"/>
-    <brk id="65" max="34" man="1"/>
-    <brk id="88" max="34" man="1"/>
+    <brk id="46" max="34" man="1"/>
+    <brk id="71" max="34" man="1"/>
+    <brk id="94" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA672AB-E36C-4209-B592-27F026372679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89BF85D-25FC-4AF4-BB9D-02F9F66DCBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -950,10 +950,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>紐づいたJAVAバッチプログラムが起動される。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>常駐プログラムが正常に動作している場合、処理停止フラグをオンにするジョブ(常駐バッチ停止ジョブ)を実行することで、</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1170,6 +1166,10 @@
   </si>
   <si>
     <t>一括処理するような場合に使用する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紐づいたJavaバッチプログラムが起動される。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2887,24 +2887,24 @@
         <v>4.2.1.1.</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E11" s="15"/>
       <c r="F11" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E12" s="15"/>
       <c r="F12" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2920,7 +2920,7 @@
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="28"/>
       <c r="F16" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2962,7 +2962,7 @@
     </row>
     <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F21" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
@@ -3218,12 +3218,12 @@
     </row>
     <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3239,13 +3239,13 @@
     <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E32" s="15"/>
       <c r="F32" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="15"/>
       <c r="F33" s="4" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3277,33 +3277,33 @@
     </row>
     <row r="39" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F39" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F41" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3389,13 +3389,13 @@
     <row r="60" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="15"/>
       <c r="F60" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="15"/>
       <c r="F61" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3422,19 +3422,19 @@
     <row r="66" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="15"/>
       <c r="F66" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="15"/>
       <c r="F67" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="15"/>
       <c r="F68" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89BF85D-25FC-4AF4-BB9D-02F9F66DCBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC3AB01-8962-46D4-916F-CA2D25537E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -962,10 +962,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>監視基盤の作り方次第となる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">一方、プログラムが暴走状態に陥って 「処理停止ハンドラ」を通過できない場合、最終手段としてプロセスを強制終了することになる。 </t>
     <rPh sb="11" eb="13">
       <t>ジョウタイ</t>
@@ -1170,6 +1166,10 @@
   </si>
   <si>
     <t>紐づいたJavaバッチプログラムが起動される。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>死活監視を停止するジョブの実現方法は監視基盤の作り方次第となる。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2887,24 +2887,24 @@
         <v>4.2.1.1.</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E11" s="15"/>
       <c r="F11" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E12" s="15"/>
       <c r="F12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2920,7 +2920,7 @@
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="28"/>
       <c r="F16" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2962,7 +2962,7 @@
     </row>
     <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F21" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
@@ -3218,12 +3218,12 @@
     </row>
     <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3239,13 +3239,13 @@
     <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E32" s="15"/>
       <c r="F32" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="15"/>
       <c r="F33" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3292,18 +3292,18 @@
     </row>
     <row r="42" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3389,13 +3389,13 @@
     <row r="60" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="15"/>
       <c r="F60" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="15"/>
       <c r="F61" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3422,19 +3422,19 @@
     <row r="66" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="15"/>
       <c r="F66" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="15"/>
       <c r="F67" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="15"/>
       <c r="F68" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC3AB01-8962-46D4-916F-CA2D25537E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69A89FA-EB3E-4CC8-993D-BF67C3AACBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,10 +280,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※本システム共通となるエラー発生時の処理は、【2.5.6.エラー処理概要】を参照。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>死活監視</t>
     <rPh sb="0" eb="2">
       <t>シカツ</t>
@@ -1170,6 +1166,10 @@
   </si>
   <si>
     <t>死活監視を停止するジョブの実現方法は監視基盤の作り方次第となる。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※本システム共通となるエラー発生時の処理は、【2.5.エラー処理概要】を参照。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S1" s="38"/>
       <c r="T1" s="38"/>
@@ -2887,24 +2887,24 @@
         <v>4.2.1.1.</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E11" s="15"/>
       <c r="F11" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E12" s="15"/>
       <c r="F12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2920,12 +2920,12 @@
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="28"/>
       <c r="F16" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -2940,7 +2940,7 @@
       <c r="O17" s="17"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F21" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
@@ -3218,12 +3218,12 @@
     </row>
     <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3239,13 +3239,13 @@
     <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E32" s="15"/>
       <c r="F32" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="15"/>
       <c r="F33" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3260,7 +3260,7 @@
     <row r="36" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E36" s="15"/>
       <c r="F36" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3277,33 +3277,33 @@
     </row>
     <row r="39" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F39" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F41" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3389,13 +3389,13 @@
     <row r="60" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="15"/>
       <c r="F60" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="15"/>
       <c r="F61" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3413,7 +3413,7 @@
     <row r="64" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D64" s="15"/>
       <c r="F64" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3422,25 +3422,25 @@
     <row r="66" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="15"/>
       <c r="F66" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="15"/>
       <c r="F67" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="15"/>
       <c r="F68" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="15"/>
       <c r="F69" s="4" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3455,7 +3455,7 @@
         <v>4.2.6.</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3465,13 +3465,13 @@
         <v>4.2.6.1.</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E74" s="15"/>
       <c r="F74" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3481,7 +3481,7 @@
         <v>4.2.6.2.</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3494,7 +3494,7 @@
     <row r="79" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="28"/>
       <c r="F79" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
@@ -3530,7 +3530,7 @@
     <row r="80" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28"/>
       <c r="F80" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
@@ -3540,7 +3540,7 @@
       <c r="L80" s="20"/>
       <c r="M80" s="20"/>
       <c r="N80" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O80" s="20"/>
       <c r="P80" s="20"/>
@@ -3574,7 +3574,7 @@
       <c r="L81" s="23"/>
       <c r="M81" s="23"/>
       <c r="N81" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O81" s="23"/>
       <c r="P81" s="23"/>
@@ -3632,7 +3632,7 @@
     <row r="83" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="28"/>
       <c r="F83" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
@@ -3642,7 +3642,7 @@
       <c r="L83" s="20"/>
       <c r="M83" s="20"/>
       <c r="N83" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O83" s="20"/>
       <c r="P83" s="20"/>
@@ -3676,7 +3676,7 @@
       <c r="L84" s="23"/>
       <c r="M84" s="23"/>
       <c r="N84" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O84" s="23"/>
       <c r="P84" s="23"/>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="89" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F89" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G89" s="23"/>
       <c r="H89" s="23"/>
@@ -3820,7 +3820,7 @@
       <c r="L89" s="23"/>
       <c r="M89" s="23"/>
       <c r="N89" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O89" s="23"/>
       <c r="P89" s="23"/>
@@ -3876,19 +3876,19 @@
     </row>
     <row r="91" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F91" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G91" s="23"/>
       <c r="H91" s="23"/>
       <c r="I91" s="24"/>
       <c r="J91" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91" s="23"/>
       <c r="L91" s="23"/>
       <c r="M91" s="23"/>
       <c r="N91" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O91" s="23"/>
       <c r="P91" s="23"/>
@@ -3921,7 +3921,7 @@
       <c r="L92" s="26"/>
       <c r="M92" s="26"/>
       <c r="N92" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O92" s="26"/>
       <c r="P92" s="26"/>
@@ -3957,23 +3957,23 @@
         <v>4.2.6.3.</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D96" s="15"/>
       <c r="F96" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D97" s="15"/>
       <c r="F97" s="29"/>
       <c r="G97" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4068,57 +4068,57 @@
       <c r="D120" s="15"/>
       <c r="F120" s="29"/>
       <c r="G120" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D121" s="15"/>
       <c r="F121" s="29"/>
       <c r="G121" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D122" s="15"/>
       <c r="F122" s="29"/>
       <c r="G122" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D123" s="15"/>
       <c r="F123" s="29"/>
       <c r="G123" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H123" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="124" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D124" s="15"/>
       <c r="F124" s="29"/>
       <c r="G124" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H124" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="H124" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="125" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D125" s="15"/>
       <c r="F125" s="29"/>
       <c r="G125" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H125" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="126" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4130,10 +4130,10 @@
       <c r="D127" s="15"/>
       <c r="F127" s="29"/>
       <c r="G127" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H127" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="128" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4147,44 +4147,44 @@
         <v>4.2.6.4.</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D130" s="15"/>
       <c r="E130" s="15"/>
       <c r="F130" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D131" s="15"/>
       <c r="E131" s="15"/>
       <c r="F131" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
       <c r="F132" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G132" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="133" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
       <c r="F133" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G133" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="134" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4192,10 +4192,10 @@
       <c r="E134" s="15"/>
       <c r="F134" s="29"/>
       <c r="G134" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4203,7 +4203,7 @@
       <c r="E135" s="15"/>
       <c r="F135" s="29"/>
       <c r="H135" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="136" spans="4:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30913991-7233-4D7B-9294-9CEA006B621E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4FD83B-D85D-49EA-A127-F12D16A9EAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,10 +444,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>本システムでの選択基準を以下に示す。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>※Nablarchでは、マルチスレッドで動かしたときに常駐バッチよりもテーブルをキューとして使ったメッセージング（以下、キュー方式）の方が</t>
     <rPh sb="20" eb="21">
       <t>ウゴ</t>
@@ -526,6 +522,13 @@
   </si>
   <si>
     <t>※本システム共通となるエラー発生時の処理は、【2.5.エラー処理概要】を参照。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでの選択理由を以下に示す。</t>
+    <rPh sb="9" eb="11">
+      <t>リユウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1422,13 +1425,13 @@
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E11" s="15"/>
       <c r="F11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E12" s="15"/>
       <c r="F12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1449,7 +1452,7 @@
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="25"/>
       <c r="F16" s="4" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1592,7 +1595,7 @@
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F21" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
@@ -1625,7 +1628,7 @@
     </row>
     <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -1658,7 +1661,7 @@
     </row>
     <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -1691,7 +1694,7 @@
     </row>
     <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -1774,7 +1777,7 @@
     <row r="33" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="15"/>
       <c r="F33" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1821,7 +1824,7 @@
     </row>
     <row r="42" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1969,7 +1972,7 @@
     <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="15"/>
       <c r="F69" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4FD83B-D85D-49EA-A127-F12D16A9EAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62B98B2-76D4-43C3-82EA-57C8AFA6E127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,20 +102,6 @@
     <t>システム運用次第で扱いが変わるが、日々定刻にスケジュール起動されるか、24時間運用の場合はシステム稼動時に起動する。</t>
   </si>
   <si>
-    <t>ジョブ起動</t>
-    <rPh sb="3" eb="5">
-      <t>キドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ジョブ停止</t>
-    <rPh sb="3" eb="5">
-      <t>テイシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>バッチアプリケーションの終了コード</t>
     <rPh sb="12" eb="14">
       <t>シュウリョウ</t>
@@ -528,6 +514,26 @@
     <t>本システムでの選択理由を以下に示す。</t>
     <rPh sb="9" eb="11">
       <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチ処理の起動</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチ処理の停止</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1275,7 +1281,7 @@
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S1" s="34"/>
       <c r="T1" s="34"/>
@@ -1419,24 +1425,24 @@
         <v>4.2.1.1.</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E11" s="15"/>
       <c r="F11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E12" s="15"/>
       <c r="F12" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1446,18 +1452,18 @@
         <v>4.2.1.2.</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="25"/>
       <c r="F16" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F17" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1466,13 +1472,13 @@
       <c r="K17" s="17"/>
       <c r="L17" s="18"/>
       <c r="M17" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
@@ -1494,7 +1500,7 @@
     </row>
     <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F18" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
@@ -1503,13 +1509,13 @@
       <c r="K18" s="20"/>
       <c r="L18" s="21"/>
       <c r="M18" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
       <c r="P18" s="21"/>
       <c r="Q18" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R18" s="20"/>
       <c r="S18" s="20"/>
@@ -1531,7 +1537,7 @@
     </row>
     <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F19" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -1595,7 +1601,7 @@
     </row>
     <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F21" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
@@ -1628,7 +1634,7 @@
     </row>
     <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
@@ -1661,7 +1667,7 @@
     </row>
     <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
@@ -1694,7 +1700,7 @@
     </row>
     <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
@@ -1750,12 +1756,12 @@
     </row>
     <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1765,19 +1771,19 @@
         <v>4.2.2.2.</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E32" s="15"/>
       <c r="F32" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E33" s="15"/>
       <c r="F33" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1792,7 +1798,7 @@
     <row r="36" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E36" s="15"/>
       <c r="F36" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1804,38 +1810,38 @@
         <v>4.2.2.3.</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F39" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F41" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F44" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1845,19 +1851,19 @@
         <v>4.2.2.4.</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E48" s="15"/>
       <c r="F48" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="15"/>
       <c r="F49" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1872,25 +1878,25 @@
         <v>4.2.4.</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="15"/>
       <c r="E53" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="15"/>
       <c r="E54" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="15"/>
       <c r="E55" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1905,7 +1911,7 @@
         <v>4.2.5.</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1915,37 +1921,37 @@
         <v>4.2.5.1.</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="15"/>
       <c r="F60" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="15"/>
       <c r="F61" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="15"/>
       <c r="F62" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="15"/>
       <c r="F63" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D64" s="15"/>
       <c r="F64" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1954,25 +1960,25 @@
     <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="15"/>
       <c r="F66" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="15"/>
       <c r="F67" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="15"/>
       <c r="F68" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="15"/>
       <c r="F69" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62B98B2-76D4-43C3-82EA-57C8AFA6E127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F92A647-3B4F-4470-9DB7-1B6A0CBC440C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,11 @@
     <sheet name="4.2.常駐バッチ" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.2.常駐バッチ'!$A$1:$AI$71</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$73</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$73</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$73</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$73</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.2.常駐バッチ'!$A$1:$AI$72</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$74</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$74</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$74</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -534,6 +534,37 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なお、常駐バッチを起動する際には、常駐バッチ起動ジョブの後ジョブとして、死活監視を開始するジョブを定義する。</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>シカツカンシ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>テイギ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1249,7 +1280,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI504"/>
+  <dimension ref="A1:AI505"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1803,186 +1834,189 @@
     </row>
     <row r="37" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E37" s="15"/>
+      <c r="F37" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="15" t="str">
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="15" t="str">
         <f>$D$26&amp;"3."</f>
         <v>4.2.2.3.</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F39" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="40" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F40" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F42" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F43" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F44" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
+    <row r="44" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F45" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="15" t="str">
+    <row r="47" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="15" t="str">
         <f>$D$26&amp;"4."</f>
         <v>4.2.2.4.</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="15"/>
-      <c r="F48" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="49" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="15"/>
       <c r="F49" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E50" s="15"/>
+      <c r="F50" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="15"/>
     </row>
     <row r="51" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="15"/>
     </row>
     <row r="52" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="15" t="str">
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D53" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>4.2.4.</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53" s="15"/>
-      <c r="E53" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="54" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="15"/>
       <c r="E54" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="15"/>
       <c r="E55" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D56" s="15"/>
+      <c r="E56" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="57" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D57" s="15"/>
     </row>
     <row r="58" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D58" s="15" t="str">
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D59" s="15" t="str">
         <f>$C$7&amp;"5."</f>
         <v>4.2.5.</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D59" s="15"/>
-      <c r="E59" s="15" t="str">
-        <f>$D$58&amp;"1."</f>
-        <v>4.2.5.1.</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="60" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="15"/>
+      <c r="E60" s="15" t="str">
+        <f>$D$59&amp;"1."</f>
+        <v>4.2.5.1.</v>
+      </c>
       <c r="F60" s="4" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="15"/>
       <c r="F61" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="15"/>
       <c r="F62" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="15"/>
       <c r="F63" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D64" s="15"/>
       <c r="F64" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="15"/>
+      <c r="F65" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="15"/>
-      <c r="F66" s="4" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="15"/>
       <c r="F67" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="15"/>
       <c r="F68" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="15"/>
       <c r="F69" s="4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D70" s="15"/>
+      <c r="F70" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="71" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D71" s="15"/>
@@ -1990,7 +2024,9 @@
     <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D72" s="15"/>
     </row>
-    <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D73" s="15"/>
+    </row>
     <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2422,6 +2458,7 @@
     <row r="502" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="503" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="AF3:AI3"/>

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F92A647-3B4F-4470-9DB7-1B6A0CBC440C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2C877B-F3A4-4AEB-8255-EA880368E8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,11 @@
     <sheet name="4.2.常駐バッチ" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.2.常駐バッチ'!$A$1:$AI$72</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$74</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$74</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$74</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.2.常駐バッチ'!$A$1:$AI$80</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$83</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$83</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$83</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -146,47 +146,6 @@
     <t>可用性が損なわれるためである。</t>
   </si>
   <si>
-    <t>方針</t>
-  </si>
-  <si>
-    <t>使用する</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>要件的に適合することと、過去の資産を生かすため、この処理方式を採用する。</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テキゴウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シサン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>常駐バッチ処理方式</t>
     <rPh sb="0" eb="2">
       <t>ジョウチュウ</t>
@@ -274,13 +233,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>理由</t>
-    <rPh sb="0" eb="2">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>常駐バッチは死活監視対象とし、異常終了後の再起動は手動で実施する。</t>
     <rPh sb="28" eb="30">
       <t>ジッシ</t>
@@ -330,52 +282,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchバッチアプリケーション</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（常駐バッチ）</t>
-    <rPh sb="1" eb="3">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarchバッチアプリケーションにおける常駐バッチは、起動後にプロセスを常駐させ、データベースを定期的に監視し、</t>
-    <rPh sb="23" eb="25">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="51" eb="54">
-      <t>テイキテキ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カンシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースに溜まった要求データをインプットデータとして一括実行する処理方式。</t>
-    <rPh sb="7" eb="8">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イッカツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>基本的な起動方法は都度起動バッチ（【4.1.2.1.方式概要】を参照）と同様で、ジョブがシェルスクリプトを起動することで、</t>
     <rPh sb="0" eb="3">
       <t>キホンテキ</t>
@@ -430,67 +336,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※Nablarchでは、マルチスレッドで動かしたときに常駐バッチよりもテーブルをキューとして使ったメッセージング（以下、キュー方式）の方が</t>
-    <rPh sb="20" eb="21">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　パフォーマンス的に優れているため、キュー方式の利用が推奨されている。</t>
-    <rPh sb="8" eb="9">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スグ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>スイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　しかし、メール送信においてはマルチスレッドが必要になるような大量送信は想定されていないため、</t>
-    <rPh sb="8" eb="10">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>タイリョウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ソウテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　常駐バッチを使用しても問題ないとされている。</t>
-    <rPh sb="1" eb="3">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プロセスを起動しておき、一定間隔でバッチ処理を実行する。 例えば、オンライン処理で作成された要求データを定期的に</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -508,13 +353,6 @@
   </si>
   <si>
     <t>※本システム共通となるエラー発生時の処理は、【2.5.エラー処理概要】を参照。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムでの選択理由を以下に示す。</t>
-    <rPh sb="9" eb="11">
-      <t>リユウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -565,6 +403,231 @@
     </rPh>
     <rPh sb="49" eb="51">
       <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchでは、常駐バッチを実現する処理方式として以下の2つが用意されている。</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロセスを起動しておき、一定間隔でバッチ処理を実行する処理方式。
+https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/batch/nablarch_batch/architecture.html#nablarch-batch-resident-batch</t>
+    <rPh sb="27" eb="31">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定期的にデータベース上のテーブルを監視し未処理のレコードを順次処理する処理方式。
+https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/messaging/db/index.html</t>
+    <rPh sb="35" eb="39">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規プロジェクトではキュー方式を採用することがNablarchでは推奨されている。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しかし、本プロジェクトのメール送信の要件では、マルチスレッドが必要になるような大量送信は想定されていない。</t>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブルをキューとして使ったメッセージング
+（以下、キュー方式）</t>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下げることができるメリットがある。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/libraries/mail.html#mail-send</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※メール送信の実装に関する説明は下記解説書を参照。</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カイセツショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースに溜まった要求データをインプットデータとして一括実行する。</t>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イッカツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常駐バッチは、起動後にプロセスを常駐させ、データベースを定期的に監視し、</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>テイキテキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マルチスレッドで動かしたときにNablarchの常駐バッチよりもキュー方式の方がパフォーマンス的に優れているため、</t>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>スグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、Nablarchの常駐バッチではメール送信の実装※がNablarchから提供されているため、実装のコストを</t>
+    <rPh sb="12" eb="14">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以上のことから、本プロジェクトでは常駐バッチの処理方式としてNablarchの常駐バッチを採用する。</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サイヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -576,7 +639,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +680,15 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -780,15 +852,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -837,34 +912,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -936,8 +984,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -945,6 +1012,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFCCFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1280,7 +1354,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI505"/>
+  <dimension ref="A1:AI514"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1296,43 +1370,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="35"/>
+      <c r="R1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="26"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="29"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="20"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1341,43 +1415,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="44"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="35"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="29"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="20"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1386,39 +1460,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="47"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="38"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="29"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="20"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1456,24 +1530,24 @@
         <v>4.2.1.1.</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E11" s="15"/>
       <c r="F11" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E12" s="15"/>
       <c r="F12" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1483,573 +1557,469 @@
         <v>4.2.1.2.</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="25"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="15"/>
+      <c r="F18" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="45"/>
+    </row>
+    <row r="19" spans="5:31" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="15"/>
+      <c r="F19" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+    </row>
+    <row r="20" spans="5:31" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="15"/>
+      <c r="F20" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+    </row>
+    <row r="21" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="15"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="40"/>
+    </row>
+    <row r="22" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E22" s="15"/>
+      <c r="F22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" s="40"/>
+    </row>
+    <row r="23" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E23" s="15"/>
+      <c r="F23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="15"/>
+      <c r="F25" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="15"/>
+      <c r="F26" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="15"/>
+      <c r="F27" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="15"/>
+      <c r="F29" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="15"/>
+      <c r="F31" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="18"/>
-    </row>
-    <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="21"/>
-    </row>
-    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="24"/>
-    </row>
-    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="20"/>
-    </row>
-    <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-    </row>
-    <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-    </row>
-    <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="20"/>
-    </row>
-    <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
-    </row>
-    <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="15" t="str">
+    <row r="32" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="15"/>
+      <c r="F32" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>4.2.2.</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="str">
-        <f>$D$26&amp;"1."</f>
+    <row r="36" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="15"/>
+      <c r="E36" s="15" t="str">
+        <f>$D$35&amp;"1."</f>
         <v>4.2.2.1.</v>
       </c>
-      <c r="F27" s="4" t="str">
-        <f>$E$26&amp;"機能概要"</f>
+      <c r="F36" s="4" t="str">
+        <f>$E$35&amp;"機能概要"</f>
         <v>処理制御機能概要</v>
       </c>
     </row>
-    <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F28" s="26" t="s">
+    <row r="37" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F37" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="15" t="str">
+        <f>$D$35&amp;"2."</f>
+        <v>4.2.2.2.</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="15"/>
+      <c r="F41" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="15"/>
+      <c r="F42" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="15"/>
+      <c r="F44" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="15"/>
+      <c r="F45" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="15"/>
+      <c r="F46" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="15" t="str">
+        <f>$D$35&amp;"3."</f>
+        <v>4.2.2.3.</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F29" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="15" t="str">
-        <f>$D$26&amp;"2."</f>
-        <v>4.2.2.2.</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="15"/>
-      <c r="F32" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="15"/>
-      <c r="F33" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="15"/>
-      <c r="F35" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="15"/>
-      <c r="F36" s="4" t="s">
+    <row r="53" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F54" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="15"/>
-      <c r="F37" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="15" t="str">
-        <f>$D$26&amp;"3."</f>
-        <v>4.2.2.3.</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="4" t="s">
+    <row r="55" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F42" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F43" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F45" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F46" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="15" t="str">
-        <f>$D$26&amp;"4."</f>
+    <row r="56" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E57" s="15" t="str">
+        <f>$D$35&amp;"4."</f>
         <v>4.2.2.4.</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="15"/>
-      <c r="F49" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="15"/>
-      <c r="F50" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53" s="15" t="str">
+    <row r="58" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E58" s="15"/>
+      <c r="F58" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E59" s="15"/>
+      <c r="F59" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D61" s="15"/>
+    </row>
+    <row r="62" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D62" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>4.2.4.</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D54" s="15"/>
-      <c r="E54" s="4" t="s">
+    <row r="63" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D63" s="15"/>
+      <c r="E63" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="15"/>
-      <c r="E55" s="4" t="s">
+    <row r="64" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D64" s="15"/>
+      <c r="E64" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D56" s="15"/>
-      <c r="E56" s="4" t="s">
+    <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D65" s="15"/>
+      <c r="E65" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D57" s="15"/>
-    </row>
-    <row r="58" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D58" s="15"/>
-    </row>
-    <row r="59" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D59" s="15" t="str">
+    <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D66" s="15"/>
+    </row>
+    <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D67" s="15"/>
+    </row>
+    <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D68" s="15" t="str">
         <f>$C$7&amp;"5."</f>
         <v>4.2.5.</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D60" s="15"/>
-      <c r="E60" s="15" t="str">
-        <f>$D$59&amp;"1."</f>
-        <v>4.2.5.1.</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D61" s="15"/>
-      <c r="F61" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D62" s="15"/>
-      <c r="F62" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D63" s="15"/>
-      <c r="F63" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D64" s="15"/>
-      <c r="F64" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D65" s="15"/>
-      <c r="F65" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D66" s="15"/>
-    </row>
-    <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D67" s="15"/>
-      <c r="F67" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D68" s="15"/>
-      <c r="F68" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="15"/>
+      <c r="E69" s="15" t="str">
+        <f>$D$68&amp;"1."</f>
+        <v>4.2.5.1.</v>
+      </c>
       <c r="F69" s="4" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D70" s="15"/>
       <c r="F70" s="4" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D71" s="15"/>
+      <c r="F71" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D72" s="15"/>
+      <c r="F72" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D73" s="15"/>
-    </row>
-    <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F73" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D74" s="15"/>
+      <c r="F74" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D75" s="15"/>
+    </row>
+    <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D76" s="15"/>
+      <c r="F76" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D77" s="15"/>
+      <c r="F77" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D78" s="15"/>
+      <c r="F78" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D79" s="15"/>
+      <c r="F79" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D80" s="15"/>
+    </row>
+    <row r="81" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D81" s="15"/>
+    </row>
+    <row r="82" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D82" s="15"/>
+    </row>
+    <row r="83" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="99" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2459,8 +2429,23 @@
     <row r="503" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="505" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="17">
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:AE20"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:AE18"/>
+    <mergeCell ref="M19:AE19"/>
+    <mergeCell ref="F19:L19"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -2474,10 +2459,13 @@
     <mergeCell ref="AA3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="F32" r:id="rId1" location="mail-send" xr:uid="{8FB751CC-258F-431B-83DE-E8E97D9A0C12}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="46" max="34" man="1"/>
+    <brk id="33" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2C877B-F3A4-4AEB-8255-EA880368E8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88331EB6-3FEA-4E2C-96E7-2F2B8A4B3C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -918,6 +918,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -982,24 +1000,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,43 +1370,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="23"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="32"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="20"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="26"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1415,43 +1415,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="35"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="41"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="20"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="26"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1460,39 +1460,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="38"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="44"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="20"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="26"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1571,120 +1571,120 @@
     </row>
     <row r="18" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E18" s="15"/>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="43" t="s">
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="45"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="23"/>
     </row>
     <row r="19" spans="5:31" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E19" s="15"/>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
     </row>
     <row r="20" spans="5:31" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="15"/>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="41"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
     </row>
     <row r="21" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E21" s="15"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="40"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="18"/>
     </row>
     <row r="22" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E22" s="15"/>
       <c r="F22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M22" s="40"/>
+      <c r="M22" s="18"/>
     </row>
     <row r="23" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="15"/>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="32" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E32" s="15"/>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1890,8 +1890,8 @@
     </row>
     <row r="62" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="15" t="str">
-        <f>$C$7&amp;"4."</f>
-        <v>4.2.4.</v>
+        <f>$C$7&amp;"3."</f>
+        <v>4.2.3.</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>16</v>
@@ -1923,8 +1923,8 @@
     </row>
     <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="15" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>4.2.5.</v>
+        <f>$C$7&amp;"4."</f>
+        <v>4.2.4.</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>20</v>
@@ -1934,7 +1934,7 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15" t="str">
         <f>$D$68&amp;"1."</f>
-        <v>4.2.5.1.</v>
+        <v>4.2.4.1.</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>21</v>
@@ -2440,12 +2440,6 @@
     <row r="514" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:AE20"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M18:AE18"/>
-    <mergeCell ref="M19:AE19"/>
-    <mergeCell ref="F19:L19"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -2457,6 +2451,12 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:AE20"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:AE18"/>
+    <mergeCell ref="M19:AE19"/>
+    <mergeCell ref="F19:L19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88331EB6-3FEA-4E2C-96E7-2F2B8A4B3C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375520D2-A8E8-436B-89A3-44DAB9696A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,11 @@
     <sheet name="4.2.常駐バッチ" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.2.常駐バッチ'!$A$1:$AI$80</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$83</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$83</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$83</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.2.常駐バッチ'!$A$1:$AI$108</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$111</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$111</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$111</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -349,10 +349,6 @@
   </si>
   <si>
     <t>死活監視を停止するジョブの実現方法は監視基盤の作り方次第となる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※本システム共通となるエラー発生時の処理は、【2.5.エラー処理概要】を参照。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -629,6 +625,145 @@
     <rPh sb="45" eb="47">
       <t>サイヨウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーの種類</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、エラーの種類を下記の２種類に分類する。</t>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務エラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このエラーは、予期可能なエラーであり、多くは業務処理の中で行う精査処理で発生する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精査処理の詳細は、【7.1入力値精査】を参照。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システムエラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事前に予期できないエラーの事を指す。例えば、データベース等のミドルウェアに起因するエラーやプログラムバグが該当する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生時の共通方針</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーハンドリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生時の制御は、エラーを処理するハンドラで共通的に行う。このため、個別プログラムでのエラーハンドリングは行わない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ただし、本来システムエラーとなるデータベースの重複エラーを業務エラーに付け替える必要がある場合（業務精査として重複エラーを</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用する場合）や、業務エラーをトリガーとして業務処理を行う必要が有る場合はこの限りではない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トランザクションのロールバック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務データが不正な状態（データの不整合等）となることを防止する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なお、トランザクションのロールバック処理は、透過的トランザクション機能(実行制御基盤)で行う。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このため、個別プログラムでのトランザクション制御は必要ない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログ出力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザからの問い合わせに対応するための証跡ログや、障害が発生したことを障害監視ツールに通知することを目的としたログ出力を行う。</t>
+  </si>
+  <si>
+    <t>必要なログ出力は共通処理の中で行うため、個別プログラムでログ出力を実装する必要はない。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力値（入力したDBデータやファイル等）として不正な値を受け取った場合のエラー。</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生時には現在のトランザクションをロールバックし、更新途中の内容は破棄する。これにより、</t>
+    <rPh sb="30" eb="32">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログ出力内容の詳細は「7.13.ログ」を参照。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -863,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,6 +1059,72 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -936,71 +1137,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1354,7 +1492,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI514"/>
+  <dimension ref="A1:AI542"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1370,43 +1508,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="32"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="28"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="26"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="22"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1415,43 +1553,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="41"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="37"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="26"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="22"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1460,39 +1598,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="44"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="40"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="26"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="22"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1563,7 +1701,7 @@
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E16" s="15"/>
       <c r="F16" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1571,102 +1709,102 @@
     </row>
     <row r="18" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E18" s="15"/>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="23"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="45"/>
     </row>
     <row r="19" spans="5:31" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E19" s="15"/>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
     </row>
     <row r="20" spans="5:31" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E20" s="15"/>
-      <c r="F20" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
+      <c r="F20" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
     </row>
     <row r="21" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E21" s="15"/>
@@ -1682,14 +1820,14 @@
     <row r="22" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E22" s="15"/>
       <c r="F22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="15"/>
       <c r="F23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1698,19 +1836,19 @@
     <row r="25" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E25" s="15"/>
       <c r="F25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E26" s="15"/>
       <c r="F26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E27" s="15"/>
       <c r="F27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1719,7 +1857,7 @@
     <row r="29" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E29" s="15"/>
       <c r="F29" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1729,13 +1867,13 @@
     <row r="31" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E31" s="15"/>
       <c r="F31" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E32" s="15"/>
       <c r="F32" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1766,12 +1904,12 @@
     </row>
     <row r="37" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F37" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1781,7 +1919,7 @@
         <v>4.2.2.2.</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1814,7 +1952,7 @@
     <row r="46" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E46" s="15"/>
       <c r="F46" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1826,7 +1964,7 @@
         <v>4.2.2.3.</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1909,19 +2047,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="15"/>
       <c r="E65" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="15"/>
     </row>
-    <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="15"/>
     </row>
-    <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>4.2.4.</v>
@@ -1930,112 +2068,223 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="15"/>
       <c r="E69" s="15" t="str">
-        <f>$D$68&amp;"1."</f>
+        <f t="shared" ref="E69" si="0">$D$68&amp;"1."</f>
         <v>4.2.4.1.</v>
       </c>
       <c r="F69" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E70" s="15"/>
+      <c r="F70" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G73" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G74" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G75" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G78" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E80" s="15" t="str">
+        <f>$D$68&amp;"2."</f>
+        <v>4.2.4.2.</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F82" s="46" t="str">
+        <f>$E$80&amp;"1."</f>
+        <v>4.2.4.2.1.</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G83" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G84" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G85" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F87" s="46" t="str">
+        <f>$E$80&amp;"2."</f>
+        <v>4.2.4.2.2.</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G88" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G89" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G90" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G91" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F93" s="46" t="str">
+        <f>$E$80&amp;"3."</f>
+        <v>4.2.4.2.3.</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G94" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G95" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G96" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D98" s="15"/>
+      <c r="E98" s="15" t="str">
+        <f>$D$68&amp;"3."</f>
+        <v>4.2.4.3.</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D70" s="15"/>
-      <c r="F70" s="4" t="s">
+    <row r="99" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D99" s="15"/>
+      <c r="F99" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D71" s="15"/>
-      <c r="F71" s="4" t="s">
+    <row r="100" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D100" s="15"/>
+      <c r="F100" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D72" s="15"/>
-      <c r="F72" s="4" t="s">
+    <row r="101" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D101" s="15"/>
+      <c r="F101" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D73" s="15"/>
-      <c r="F73" s="4" t="s">
+    <row r="102" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D102" s="15"/>
+      <c r="F102" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D74" s="15"/>
-      <c r="F74" s="4" t="s">
+    <row r="103" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D103" s="15"/>
+      <c r="F103" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D75" s="15"/>
-    </row>
-    <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D76" s="15"/>
-      <c r="F76" s="4" t="s">
+    <row r="104" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D104" s="15"/>
+    </row>
+    <row r="105" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D105" s="15"/>
+      <c r="F105" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D77" s="15"/>
-      <c r="F77" s="4" t="s">
+    <row r="106" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D106" s="15"/>
+      <c r="F106" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D78" s="15"/>
-      <c r="F78" s="4" t="s">
+    <row r="107" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D107" s="15"/>
+      <c r="F107" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D79" s="15"/>
-      <c r="F79" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D80" s="15"/>
-    </row>
-    <row r="81" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D81" s="15"/>
-    </row>
-    <row r="82" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D82" s="15"/>
-    </row>
-    <row r="83" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="4:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D108" s="15"/>
+    </row>
+    <row r="109" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D109" s="15"/>
+    </row>
+    <row r="110" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D110" s="15"/>
+    </row>
+    <row r="111" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2438,8 +2687,42 @@
     <row r="512" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="513" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="514" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:AE20"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:AE18"/>
+    <mergeCell ref="M19:AE19"/>
+    <mergeCell ref="F19:L19"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -2451,12 +2734,6 @@
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="E3:O3"/>
     <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:AE20"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M18:AE18"/>
-    <mergeCell ref="M19:AE19"/>
-    <mergeCell ref="F19:L19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -2464,8 +2741,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="33" max="34" man="1"/>
+    <brk id="66" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_4バッチ処理方式_4.2.常駐バッチ.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F92A647-3B4F-4470-9DB7-1B6A0CBC440C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375520D2-A8E8-436B-89A3-44DAB9696A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,11 +11,11 @@
     <sheet name="4.2.常駐バッチ" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.2.常駐バッチ'!$A$1:$AI$72</definedName>
-    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$74</definedName>
-    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$74</definedName>
-    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$74</definedName>
-    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.2.常駐バッチ'!$A$1:$AI$108</definedName>
+    <definedName name="Z_344DE406_F393_4E5A_9A14_596BA958D606_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$111</definedName>
+    <definedName name="Z_AC3D26AC_6835_49DE_BCEC_94F40C257790_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$111</definedName>
+    <definedName name="Z_B9596DFB_62BC_4685_B6E9_D37718868A8E_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$111</definedName>
+    <definedName name="Z_E93A55B4_B092_4477_988B_A2DD8C792DE3_.wvu.PrintArea" localSheetId="0" hidden="1">'4.2.常駐バッチ'!$A$1:$AI$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>プロジェクト名</t>
     <phoneticPr fontId="3"/>
@@ -146,47 +146,6 @@
     <t>可用性が損なわれるためである。</t>
   </si>
   <si>
-    <t>方針</t>
-  </si>
-  <si>
-    <t>使用する</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>要件的に適合することと、過去の資産を生かすため、この処理方式を採用する。</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>テキゴウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シサン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>サイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>常駐バッチ処理方式</t>
     <rPh sb="0" eb="2">
       <t>ジョウチュウ</t>
@@ -274,13 +233,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>理由</t>
-    <rPh sb="0" eb="2">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>常駐バッチは死活監視対象とし、異常終了後の再起動は手動で実施する。</t>
     <rPh sb="28" eb="30">
       <t>ジッシ</t>
@@ -330,52 +282,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Nablarchバッチアプリケーション</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（常駐バッチ）</t>
-    <rPh sb="1" eb="3">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nablarchバッチアプリケーションにおける常駐バッチは、起動後にプロセスを常駐させ、データベースを定期的に監視し、</t>
-    <rPh sb="23" eb="25">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>キドウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="51" eb="54">
-      <t>テイキテキ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カンシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースに溜まった要求データをインプットデータとして一括実行する処理方式。</t>
-    <rPh sb="7" eb="8">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヨウキュウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イッカツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>基本的な起動方法は都度起動バッチ（【4.1.2.1.方式概要】を参照）と同様で、ジョブがシェルスクリプトを起動することで、</t>
     <rPh sb="0" eb="3">
       <t>キホンテキ</t>
@@ -430,67 +336,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※Nablarchでは、マルチスレッドで動かしたときに常駐バッチよりもテーブルをキューとして使ったメッセージング（以下、キュー方式）の方が</t>
-    <rPh sb="20" eb="21">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　パフォーマンス的に優れているため、キュー方式の利用が推奨されている。</t>
-    <rPh sb="8" eb="9">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スグ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホウシキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>スイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　しかし、メール送信においてはマルチスレッドが必要になるような大量送信は想定されていないため、</t>
-    <rPh sb="8" eb="10">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>タイリョウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ソウテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>　常駐バッチを使用しても問題ないとされている。</t>
-    <rPh sb="1" eb="3">
-      <t>ジョウチュウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プロセスを起動しておき、一定間隔でバッチ処理を実行する。 例えば、オンライン処理で作成された要求データを定期的に</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -504,17 +349,6 @@
   </si>
   <si>
     <t>死活監視を停止するジョブの実現方法は監視基盤の作り方次第となる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※本システム共通となるエラー発生時の処理は、【2.5.エラー処理概要】を参照。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本システムでの選択理由を以下に示す。</t>
-    <rPh sb="9" eb="11">
-      <t>リユウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -566,6 +400,370 @@
     <rPh sb="49" eb="51">
       <t>テイギ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nablarchでは、常駐バッチを実現する処理方式として以下の2つが用意されている。</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロセスを起動しておき、一定間隔でバッチ処理を実行する処理方式。
+https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/batch/nablarch_batch/architecture.html#nablarch-batch-resident-batch</t>
+    <rPh sb="27" eb="31">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定期的にデータベース上のテーブルを監視し未処理のレコードを順次処理する処理方式。
+https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/messaging/db/index.html</t>
+    <rPh sb="35" eb="39">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新規プロジェクトではキュー方式を採用することがNablarchでは推奨されている。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>しかし、本プロジェクトのメール送信の要件では、マルチスレッドが必要になるような大量送信は想定されていない。</t>
+    <rPh sb="4" eb="5">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブルをキューとして使ったメッセージング
+（以下、キュー方式）</t>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下げることができるメリットがある。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://nablarch.github.io/docs/5u21/doc/application_framework/application_framework/libraries/mail.html#mail-send</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※メール送信の実装に関する説明は下記解説書を参照。</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カイセツショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースに溜まった要求データをインプットデータとして一括実行する。</t>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イッカツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常駐バッチは、起動後にプロセスを常駐させ、データベースを定期的に監視し、</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>テイキテキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マルチスレッドで動かしたときにNablarchの常駐バッチよりもキュー方式の方がパフォーマンス的に優れているため、</t>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>スグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、Nablarchの常駐バッチではメール送信の実装※がNablarchから提供されているため、実装のコストを</t>
+    <rPh sb="12" eb="14">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以上のことから、本プロジェクトでは常駐バッチの処理方式としてNablarchの常駐バッチを採用する。</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジョウチュウ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ショリホウシキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーの種類</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本システムでは、エラーの種類を下記の２種類に分類する。</t>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務エラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このエラーは、予期可能なエラーであり、多くは業務処理の中で行う精査処理で発生する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精査処理の詳細は、【7.1入力値精査】を参照。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システムエラー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事前に予期できないエラーの事を指す。例えば、データベース等のミドルウェアに起因するエラーやプログラムバグが該当する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生時の共通方針</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーハンドリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生時の制御は、エラーを処理するハンドラで共通的に行う。このため、個別プログラムでのエラーハンドリングは行わない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ただし、本来システムエラーとなるデータベースの重複エラーを業務エラーに付け替える必要がある場合（業務精査として重複エラーを</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用する場合）や、業務エラーをトリガーとして業務処理を行う必要が有る場合はこの限りではない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トランザクションのロールバック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務データが不正な状態（データの不整合等）となることを防止する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なお、トランザクションのロールバック処理は、透過的トランザクション機能(実行制御基盤)で行う。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このため、個別プログラムでのトランザクション制御は必要ない。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログ出力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザからの問い合わせに対応するための証跡ログや、障害が発生したことを障害監視ツールに通知することを目的としたログ出力を行う。</t>
+  </si>
+  <si>
+    <t>必要なログ出力は共通処理の中で行うため、個別プログラムでログ出力を実装する必要はない。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力値（入力したDBデータやファイル等）として不正な値を受け取った場合のエラー。</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラー発生時には現在のトランザクションをロールバックし、更新途中の内容は破棄する。これにより、</t>
+    <rPh sb="30" eb="32">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログ出力内容の詳細は「7.13.ログ」を参照。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -576,7 +774,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +815,15 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -780,15 +987,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -837,39 +1047,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -936,8 +1125,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 3 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -945,6 +1150,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FFCCECFF"/>
+      <color rgb="FFCCFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1280,7 +1492,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI505"/>
+  <dimension ref="A1:AI542"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -1296,43 +1508,43 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="32"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25"/>
       <c r="P1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="35"/>
+      <c r="R1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="28"/>
       <c r="Y1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="22"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -1341,43 +1553,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="44"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="37"/>
       <c r="Y2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="22"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1386,39 +1598,39 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-      <c r="U3" s="46"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="47"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="40"/>
       <c r="Y3" s="12" t="s">
         <v>8</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="22"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1456,24 +1668,24 @@
         <v>4.2.1.1.</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E11" s="15"/>
       <c r="F11" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E12" s="15"/>
       <c r="F12" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F13" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1483,589 +1695,596 @@
         <v>4.2.1.2.</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="25"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="18"/>
-    </row>
-    <row r="18" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F18" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="20"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
-      <c r="AF18" s="20"/>
-      <c r="AG18" s="20"/>
-      <c r="AH18" s="21"/>
-    </row>
-    <row r="19" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F19" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="24"/>
-    </row>
-    <row r="20" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="20"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
-      <c r="AF20" s="20"/>
-      <c r="AG20" s="20"/>
-      <c r="AH20" s="20"/>
-    </row>
-    <row r="21" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F21" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="15"/>
+      <c r="F18" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="20"/>
-      <c r="AG21" s="20"/>
-      <c r="AH21" s="20"/>
-    </row>
-    <row r="22" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F22" s="20" t="s">
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="44"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="45"/>
+    </row>
+    <row r="19" spans="5:31" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="15"/>
+      <c r="F19" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="20"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="20"/>
-      <c r="AG22" s="20"/>
-      <c r="AH22" s="20"/>
-    </row>
-    <row r="23" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+    </row>
+    <row r="20" spans="5:31" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="15"/>
+      <c r="F20" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+    </row>
+    <row r="21" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="15"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E22" s="15"/>
+      <c r="F22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E23" s="15"/>
       <c r="F23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-      <c r="X23" s="20"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="20"/>
-      <c r="AH23" s="20"/>
-    </row>
-    <row r="24" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F24" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="20"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="20"/>
-      <c r="AG24" s="20"/>
-      <c r="AH24" s="20"/>
-    </row>
-    <row r="25" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D26" s="15" t="str">
+    </row>
+    <row r="24" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="15"/>
+      <c r="F25" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="15"/>
+      <c r="F26" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E27" s="15"/>
+      <c r="F27" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E29" s="15"/>
+      <c r="F29" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E30" s="15"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E31" s="15"/>
+      <c r="F31" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="5:31" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E32" s="15"/>
+      <c r="F32" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="15"/>
+    </row>
+    <row r="35" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D35" s="15" t="str">
         <f>$C$7&amp;"2."</f>
         <v>4.2.2.</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="str">
-        <f>$D$26&amp;"1."</f>
+    <row r="36" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="15"/>
+      <c r="E36" s="15" t="str">
+        <f>$D$35&amp;"1."</f>
         <v>4.2.2.1.</v>
       </c>
-      <c r="F27" s="4" t="str">
-        <f>$E$26&amp;"機能概要"</f>
+      <c r="F36" s="4" t="str">
+        <f>$E$35&amp;"機能概要"</f>
         <v>処理制御機能概要</v>
       </c>
     </row>
-    <row r="28" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F28" s="26" t="s">
+    <row r="37" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F37" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="15" t="str">
+        <f>$D$35&amp;"2."</f>
+        <v>4.2.2.2.</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="15"/>
+      <c r="F41" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="15"/>
+      <c r="F42" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="15"/>
+      <c r="F44" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="15"/>
+      <c r="F45" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="15"/>
+      <c r="F46" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="15" t="str">
+        <f>$D$35&amp;"3."</f>
+        <v>4.2.2.3.</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F29" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E31" s="15" t="str">
-        <f>$D$26&amp;"2."</f>
-        <v>4.2.2.2.</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="4:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E32" s="15"/>
-      <c r="F32" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="15"/>
-      <c r="F33" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="15"/>
-      <c r="F35" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="15"/>
-      <c r="F36" s="4" t="s">
+    <row r="53" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F54" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="15"/>
-      <c r="F37" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="15" t="str">
-        <f>$D$26&amp;"3."</f>
-        <v>4.2.2.3.</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="4" t="s">
+    <row r="55" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F42" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F43" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F45" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F46" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="5:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="15" t="str">
-        <f>$D$26&amp;"4."</f>
+    <row r="56" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E57" s="15" t="str">
+        <f>$D$35&amp;"4."</f>
         <v>4.2.2.4.</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F57" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="15"/>
-      <c r="F49" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="15"/>
-      <c r="F50" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="15"/>
-    </row>
-    <row r="53" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53" s="15" t="str">
+    <row r="58" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E58" s="15"/>
+      <c r="F58" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E59" s="15"/>
+      <c r="F59" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D60" s="15"/>
+    </row>
+    <row r="61" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D61" s="15"/>
+    </row>
+    <row r="62" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D62" s="15" t="str">
+        <f>$C$7&amp;"3."</f>
+        <v>4.2.3.</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D63" s="15"/>
+      <c r="E63" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D64" s="15"/>
+      <c r="E64" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D65" s="15"/>
+      <c r="E65" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D66" s="15"/>
+    </row>
+    <row r="67" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D67" s="15"/>
+    </row>
+    <row r="68" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D68" s="15" t="str">
         <f>$C$7&amp;"4."</f>
         <v>4.2.4.</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D54" s="15"/>
-      <c r="E54" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="15"/>
-      <c r="E55" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D56" s="15"/>
-      <c r="E56" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D57" s="15"/>
-    </row>
-    <row r="58" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D58" s="15"/>
-    </row>
-    <row r="59" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D59" s="15" t="str">
-        <f>$C$7&amp;"5."</f>
-        <v>4.2.5.</v>
-      </c>
-      <c r="E59" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D60" s="15"/>
-      <c r="E60" s="15" t="str">
-        <f>$D$59&amp;"1."</f>
-        <v>4.2.5.1.</v>
-      </c>
-      <c r="F60" s="4" t="s">
+    <row r="69" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D69" s="15"/>
+      <c r="E69" s="15" t="str">
+        <f t="shared" ref="E69" si="0">$D$68&amp;"1."</f>
+        <v>4.2.4.1.</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E70" s="15"/>
+      <c r="F70" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G73" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G74" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G75" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G78" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="4:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E80" s="15" t="str">
+        <f>$D$68&amp;"2."</f>
+        <v>4.2.4.2.</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F82" s="46" t="str">
+        <f>$E$80&amp;"1."</f>
+        <v>4.2.4.2.1.</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G83" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G84" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G85" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F87" s="46" t="str">
+        <f>$E$80&amp;"2."</f>
+        <v>4.2.4.2.2.</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G88" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G89" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G90" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G91" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F93" s="46" t="str">
+        <f>$E$80&amp;"3."</f>
+        <v>4.2.4.2.3.</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G94" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G95" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="6:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G96" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D98" s="15"/>
+      <c r="E98" s="15" t="str">
+        <f>$D$68&amp;"3."</f>
+        <v>4.2.4.3.</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D61" s="15"/>
-      <c r="F61" s="4" t="s">
+    <row r="99" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D99" s="15"/>
+      <c r="F99" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D100" s="15"/>
+      <c r="F100" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D101" s="15"/>
+      <c r="F101" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D102" s="15"/>
+      <c r="F102" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D103" s="15"/>
+      <c r="F103" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D104" s="15"/>
+    </row>
+    <row r="105" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D105" s="15"/>
+      <c r="F105" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D106" s="15"/>
+      <c r="F106" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D107" s="15"/>
+      <c r="F107" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D62" s="15"/>
-      <c r="F62" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D63" s="15"/>
-      <c r="F63" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D64" s="15"/>
-      <c r="F64" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D65" s="15"/>
-      <c r="F65" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D66" s="15"/>
-    </row>
-    <row r="67" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D67" s="15"/>
-      <c r="F67" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D68" s="15"/>
-      <c r="F68" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D69" s="15"/>
-      <c r="F69" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D70" s="15"/>
-      <c r="F70" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D71" s="15"/>
-    </row>
-    <row r="72" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D72" s="15"/>
-    </row>
-    <row r="73" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D73" s="15"/>
-    </row>
-    <row r="74" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D108" s="15"/>
+    </row>
+    <row r="109" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D109" s="15"/>
+    </row>
+    <row r="110" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D110" s="15"/>
+    </row>
+    <row r="111" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="113" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="115" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2459,8 +2678,51 @@
     <row r="503" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="504" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="505" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="17">
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:AE20"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:AE18"/>
+    <mergeCell ref="M19:AE19"/>
+    <mergeCell ref="F19:L19"/>
     <mergeCell ref="AF3:AI3"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="R1:X1"/>
@@ -2474,10 +2736,14 @@
     <mergeCell ref="AA3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="F32" r:id="rId1" location="mail-send" xr:uid="{8FB751CC-258F-431B-83DE-E8E97D9A0C12}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="46" max="34" man="1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="33" max="34" man="1"/>
+    <brk id="66" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>